--- a/Riddhi/ASSESMENT.xlsx
+++ b/Riddhi/ASSESMENT.xlsx
@@ -9,11 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Test scenario" sheetId="1" r:id="rId1"/>
     <sheet name="Test cases" sheetId="2" r:id="rId2"/>
+    <sheet name="iphone 15" sheetId="3" r:id="rId3"/>
+    <sheet name="samsung galaxy s22" sheetId="4" r:id="rId4"/>
+    <sheet name="ipad" sheetId="5" r:id="rId5"/>
+    <sheet name="macOS" sheetId="6" r:id="rId6"/>
+    <sheet name="windows 11" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -215,6 +220,251 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>182386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1539240" y="30480"/>
+          <a:ext cx="10058400" cy="5089666"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>43618</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1150620" y="0"/>
+          <a:ext cx="10058400" cy="5347138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>83859</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1684020" y="68580"/>
+          <a:ext cx="10058400" cy="4953039"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171911</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1516380" y="91440"/>
+          <a:ext cx="10058400" cy="4652471"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>18856</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1615440" y="213360"/>
+          <a:ext cx="10058400" cy="4560376"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -555,7 +805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -765,4 +1015,79 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>